--- a/data/trans_dic/CONS_COR-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COR-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,31</t>
+          <t>7,71; 12,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,83</t>
+          <t>3,36; 7,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,89; 12,03</t>
+          <t>0,98; 2,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,03</t>
+          <t>1,62; 4,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,76</t>
+          <t>1,14; 3,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,19</t>
+          <t>0,98; 3,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,65</t>
+          <t>4,93; 7,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,72; 4,75</t>
+          <t>2,87; 5,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 7,55</t>
+          <t>1,25; 2,91</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>2,56%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 8,54</t>
+          <t>6,78; 12,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 7,01</t>
+          <t>3,4; 7,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,95; 11,9</t>
+          <t>2,35; 6,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,21</t>
+          <t>1,85; 4,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,89</t>
+          <t>0,76; 3,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,24</t>
+          <t>0,57; 2,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,98</t>
+          <t>4,37; 7,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 4,61</t>
+          <t>2,52; 5,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 6,9</t>
+          <t>1,59; 3,87</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>3,06%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 9,06</t>
+          <t>9,62; 14,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 9,43</t>
+          <t>1,03; 9,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,88; 14,03</t>
+          <t>2,3; 5,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,06</t>
+          <t>5,43; 11,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,1; 13,08</t>
+          <t>4,53; 18,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 11,32</t>
+          <t>0,0; 6,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,45</t>
+          <t>9,04; 12,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 8,95</t>
+          <t>1,49; 9,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,36; 12,59</t>
+          <t>1,99; 4,94</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>4,4%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,37</t>
+          <t>8,61; 12,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 8,98</t>
+          <t>5,89; 9,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,36; 13,24</t>
+          <t>4,42; 8,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,72</t>
+          <t>4,03; 6,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 4,33</t>
+          <t>0,99; 4,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 6,37</t>
+          <t>1,48; 4,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 6,37</t>
+          <t>6,67; 9,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 6,42</t>
+          <t>2,95; 6,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,08; 9,41</t>
+          <t>3,29; 5,72</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>4,43%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 8,74</t>
+          <t>4,19; 8,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,48; 8,24</t>
+          <t>2,14; 6,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,5; 9,68</t>
+          <t>2,43; 7,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 8,8</t>
+          <t>5,86; 9,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,97; 8,92</t>
+          <t>3,31; 7,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,44; 11,42</t>
+          <t>2,84; 8,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,77</t>
+          <t>5,74; 8,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,97; 8,25</t>
+          <t>3,35; 6,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,16; 10,12</t>
+          <t>2,95; 6,58</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1,09%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,92%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,82%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>3,08%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,2; 2,27</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,9</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0; 11,83</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 3,47</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 1,78</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,84</t>
+          <t>7,95; 12,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,93; 10,01</t>
+          <t>6,15; 9,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,24; 11,22</t>
+          <t>0,0; 26,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,02</t>
+          <t>5,98; 9,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,39; 7,87</t>
+          <t>4,59; 7,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,1; 7,56</t>
+          <t>0,0; 13,62</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>3,23%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,42; 6,26</t>
+          <t>8,38; 10,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,12; 6,53</t>
+          <t>3,38; 6,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,61; 10,29</t>
+          <t>3,19; 4,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,7</t>
+          <t>5,22; 6,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,62; 5,95</t>
+          <t>3,22; 5,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,47; 6,75</t>
+          <t>1,74; 3,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,51; 4,74</t>
+          <t>6,83; 8,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,08; 6,02</t>
+          <t>3,83; 5,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,19; 8,25</t>
+          <t>2,74; 3,83</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para el corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14294</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18934</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5334</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3736</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6497</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5573</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18030</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25431</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10907</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11242; 17967</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12324; 27224</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2899; 8839</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2317; 6086</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3417; 11431</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2706; 10816</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14229; 22179</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>19084; 35193</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7148; 16670</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7529</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16707</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7872</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3251</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3071</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10780</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>21109</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10943</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5504; 10242</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11010; 25611</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4603; 12981</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2019; 4930</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1980; 7982</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1313; 6606</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8324; 13704</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>14701; 29934</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6810; 16554</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19104</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19721</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6648</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5087</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8618</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1426</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>24190</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28339</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8074</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15762; 23127</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4887; 45976</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4158; 10156</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3426; 7486</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4421; 17878</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5202</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20513; 28841</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8557; 56605</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5235; 13026</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>17829</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>41961</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>19510</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>17040</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7942</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>27207</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>59001</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>27451</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>14638; 21678</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>31561; 53312</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>13634; 26746</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7143; 12187</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6278; 29290</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4675; 13522</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>23180; 32087</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>34563; 79383</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>20534; 35692</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8550</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6013</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>10231</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>23372</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7509</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>14897</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>31923</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>13521</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3222; 6904</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4526; 14697</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3648; 10906</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7786; 13240</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>14027; 32984</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4406; 13116</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12040; 18617</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>21282; 42793</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>9006; 20091</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1818</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>11868</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>37526</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>12234</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>39345</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>92; 1027</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8177</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1106</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>9402; 14965</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>30133; 48699</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3004</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>9779; 15727</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>30141; 50185</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2830</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>63789</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>107692</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>45377</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>43549</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>97456</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>26160</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>107338</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>205148</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>71537</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>57250; 70938</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>70224; 131984</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>36317; 54903</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>38803; 49456</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>71024; 118916</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>18735; 34447</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>97404; 115016</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>164089; 239383</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>60600; 84864</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_COR-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COR-Clase-trans_dic.xlsx
@@ -1246,7 +1246,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 1106</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_COR-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COR-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón</t>
+          <t>Consumo de medicamentos para el corazón (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón</t>
+          <t>Consumo de medicamentos para el corazón (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_COR-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COR-Clase-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,71; 12,32</t>
+          <t>6,83; 10,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,42</t>
+          <t>3,56; 7,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,26</t>
+          <t>1,19; 3,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,82</t>
+          <t>1,19; 3,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 7,68</t>
+          <t>4,16; 6,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 5,29</t>
+          <t>2,72; 5,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,78; 12,62</t>
+          <t>6,57; 12,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 7,9</t>
+          <t>3,38; 7,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,52</t>
+          <t>1,65; 4,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,07</t>
+          <t>0,8; 3,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 7,2</t>
+          <t>4,08; 6,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,12</t>
+          <t>2,52; 4,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,62; 14,11</t>
+          <t>9,63; 13,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 9,67</t>
+          <t>0,89; 9,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,43; 11,86</t>
+          <t>6,17; 13,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 18,32</t>
+          <t>4,54; 17,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,04; 12,71</t>
+          <t>9,05; 12,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 9,88</t>
+          <t>1,52; 9,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,61; 12,75</t>
+          <t>8,56; 12,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,89; 9,94</t>
+          <t>5,85; 10,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 6,88</t>
+          <t>4,47; 7,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,6</t>
+          <t>0,89; 4,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,67; 9,24</t>
+          <t>6,78; 9,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,77</t>
+          <t>2,92; 6,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,98</t>
+          <t>3,58; 8,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 6,96</t>
+          <t>2,18; 6,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,86; 9,96</t>
+          <t>5,26; 9,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,31; 7,78</t>
+          <t>2,97; 7,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,74; 8,87</t>
+          <t>5,2; 8,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,35; 6,74</t>
+          <t>3,34; 6,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,27</t>
+          <t>0,2; 3,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,9</t>
+          <t>0,0; 4,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,95; 12,65</t>
+          <t>8,51; 13,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,94</t>
+          <t>5,92; 9,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,98; 9,62</t>
+          <t>5,87; 9,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,59; 7,64</t>
+          <t>4,7; 7,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,38; 10,39</t>
+          <t>7,85; 9,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,38; 6,34</t>
+          <t>3,41; 6,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,22; 6,65</t>
+          <t>5,02; 6,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,22; 5,39</t>
+          <t>3,17; 5,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,83; 8,06</t>
+          <t>6,58; 7,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,83; 5,58</t>
+          <t>3,74; 5,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14294</t>
+          <t>14001</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3736</t>
+          <t>3376</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18030</t>
+          <t>17377</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11242; 17967</t>
+          <t>11117; 17362</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12324; 27224</t>
+          <t>13052; 27154</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2317; 6086</t>
+          <t>2013; 5176</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3417; 11431</t>
+          <t>3556; 11409</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14229; 22179</t>
+          <t>13799; 21054</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19084; 35193</t>
+          <t>18131; 34322</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7529</t>
+          <t>8011</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3251</t>
+          <t>3239</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10780</t>
+          <t>11250</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5504; 10242</t>
+          <t>5939; 11157</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11010; 25611</t>
+          <t>10950; 24405</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2019; 4930</t>
+          <t>2021; 5028</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1980; 7982</t>
+          <t>2092; 8976</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8324; 13704</t>
+          <t>8684; 14299</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14701; 29934</t>
+          <t>14692; 28832</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19104</t>
+          <t>17609</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5087</t>
+          <t>5527</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24190</t>
+          <t>23135</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15762; 23127</t>
+          <t>14818; 21376</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4887; 45976</t>
+          <t>4254; 45222</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3426; 7486</t>
+          <t>3802; 8156</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4421; 17878</t>
+          <t>4431; 17428</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>20513; 28841</t>
+          <t>19501; 27217</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8557; 56605</t>
+          <t>8723; 54354</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17829</t>
+          <t>17473</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9377</t>
+          <t>10538</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>27207</t>
+          <t>28011</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14638; 21678</t>
+          <t>14529; 21342</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>31561; 53312</t>
+          <t>31368; 54543</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7143; 12187</t>
+          <t>8135; 13903</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6278; 29290</t>
+          <t>5664; 28930</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23180; 32087</t>
+          <t>23872; 32779</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>34563; 79383</t>
+          <t>34293; 79351</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4666</t>
+          <t>4240</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10231</t>
+          <t>8713</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14897</t>
+          <t>12954</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3222; 6904</t>
+          <t>2664; 6208</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4526; 14697</t>
+          <t>4612; 14704</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2322,12 +2322,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7786; 13240</t>
+          <t>6601; 11321</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>14027; 32984</t>
+          <t>12610; 31503</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2337,12 +2337,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12040; 18617</t>
+          <t>10402; 16203</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>21282; 42793</t>
+          <t>21205; 42054</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>560</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>11868</t>
+          <t>12749</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>12234</t>
+          <t>13309</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>92; 1027</t>
+          <t>109; 2163</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 8177</t>
+          <t>0; 7762</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9402; 14965</t>
+          <t>10438; 15936</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>30133; 48699</t>
+          <t>29021; 47548</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9779; 15727</t>
+          <t>10467; 16658</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>30141; 50185</t>
+          <t>30875; 51035</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>63789</t>
+          <t>61895</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>43549</t>
+          <t>44143</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>107338</t>
+          <t>106038</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>57250; 70938</t>
+          <t>55510; 68241</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>70224; 131984</t>
+          <t>71029; 132174</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>38803; 49456</t>
+          <t>39284; 50384</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>71024; 118916</t>
+          <t>69900; 118418</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>97404; 115016</t>
+          <t>98015; 114356</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>164089; 239383</t>
+          <t>160501; 237823</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_COR-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COR-Clase-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>5,37%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>8,6%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,16%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,8%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>2,41%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2,01%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>2,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,17%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,01%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>4,03%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>5,24%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3,82%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>3,71; 7,61</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 2,99</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>6,83; 10,66</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,56; 7,41</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 2,99</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>1,36; 4,05</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 3,91</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>1,19; 3,07</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 3,82</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 3,91</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>2,86; 5,37</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 2,91</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>4,16; 6,35</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2,72; 5,16</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>1,25; 2,91</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4,02%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>8,86%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,16%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,02%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>2,64%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,69%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,32%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>5,28%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3,61%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,56%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>3,33; 7,41</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 6,63</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>6,57; 12,34</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>3,38; 7,53</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,35; 6,63</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>0,74; 3,31</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 2,85</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>1,65; 4,1</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,8; 3,45</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,57; 2,85</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>2,41; 4,75</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 3,87</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>4,08; 6,71</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>2,52; 4,94</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 3,87</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>8,19%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>11,44%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,15%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,68%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>9,08%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>8,97%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>8,83%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,72%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>8,45%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>10,74%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,95%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,06%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>5,36; 11,6</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2,3; 5,61</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>9,63; 13,89</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 9,51</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,3; 5,61</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>4,75; 18,61</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,28</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>6,17; 13,24</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>4,54; 17,86</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 6,28</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>5,91; 12,11</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1,99; 4,94</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>9,05; 12,63</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 9,49</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,99; 4,94</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,38%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>10,3%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,83%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,33%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>5,78%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,68%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,51%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>5,72%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>7,96%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,03%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>4,4%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>5,5; 9,48</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4,42; 8,67</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>8,56; 12,57</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5,85; 10,17</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,42; 8,67</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>2,63; 5,53</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1,48; 4,28</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>4,47; 7,63</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 4,54</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 4,28</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>4,57; 7,05</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3,29; 5,72</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>6,78; 9,31</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>2,92; 6,77</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>3,29; 5,72</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,75%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>5,7%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,05%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,0%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>6,73%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4,84%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>6,95%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,51%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,84%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>5,59%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>6,48%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5,03%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>4,43%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>2,05; 6,4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 7,26</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>3,58; 8,34</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,18; 6,96</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,43; 7,26</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>4,98; 8,81</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,84; 8,46</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>5,26; 9,03</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>2,97; 7,43</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>2,84; 8,46</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>4,27; 7,15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 6,58</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>5,2; 8,11</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>3,34; 6,62</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>2,95; 6,58</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1,09%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>1,01%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,09%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>7,72%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>10,4%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,66%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>5,6%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>6,16%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>7,47%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,99%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>3,08%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 4,65</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0,2; 3,89</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,65</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>5,97; 9,84</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 26,27</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>8,51; 13,0</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>5,92; 9,7</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 26,27</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>4,86; 7,89</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 13,62</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>5,87; 9,35</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,7; 7,77</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,62</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>5,72%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3,98%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>8,76%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>5,18%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,98%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>5,08%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>5,64%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>4,42%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>2,44%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,23%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>7,12%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>4,78%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>3,23%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>4,84; 6,65</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3,19; 4,82</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>7,85; 9,65</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>3,41; 6,35</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>3,19; 4,82</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>4,45; 6,03</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 3,21</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>5,02; 6,43</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>3,17; 5,37</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 3,21</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>4,78; 6,01</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 3,83</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>6,58; 7,68</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>3,74; 5,55</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 3,83</t>
         </is>
       </c>
     </row>
@@ -1479,47 +1479,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>80</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>101</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>21241</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5334</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>14001</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>18934</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>5334</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>7909</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5573</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>3376</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>6497</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>5573</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>29151</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10907</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>17377</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>25431</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>10907</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>14666; 30069</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2899; 8839</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>11117; 17362</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>13052; 27154</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2899; 8839</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>4457; 13283</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2706; 10816</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>2013; 5176</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3556; 11409</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2706; 10816</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>20673; 38861</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7148; 16670</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>13799; 21054</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>18131; 34322</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>7148; 16670</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>47</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>68</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>17271</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7872</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>8011</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>16707</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7872</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3071</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>3239</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4402</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3071</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>21928</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10943</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>11250</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>21109</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>10943</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>11477; 25522</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4603; 12981</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>5939; 11157</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>10950; 24405</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4603; 12981</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>2137; 9508</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1313; 6606</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>2021; 5028</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>2092; 8976</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1313; 6606</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>15241; 29981</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6810; 16554</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>8684; 14299</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>14692; 28832</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>6810; 16554</t>
         </is>
       </c>
     </row>
@@ -1875,47 +1875,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>106</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>136</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>21331</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6648</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>17609</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>19721</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>6648</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>10120</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1426</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>5527</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>8618</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1426</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>31451</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8074</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>23135</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>28339</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>8074</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>13953; 30235</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4158; 10156</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>14818; 21376</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4254; 45222</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4158; 10156</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>5293; 20742</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5202</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>3802; 8156</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>4431; 17428</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0; 5202</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>21998; 45071</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5235; 13026</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>19501; 27217</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>8723; 54354</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>5235; 13026</t>
         </is>
       </c>
     </row>
@@ -2038,47 +2038,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>111</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>171</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>60</t>
         </is>
       </c>
     </row>
@@ -2091,47 +2091,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>45041</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>19510</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>17473</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>41961</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>19510</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>17893</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7942</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>10538</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>17040</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>7942</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>62934</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>27451</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>28011</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>59001</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>27451</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>33538; 57806</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>13634; 26746</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>14529; 21342</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>31368; 54543</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>13634; 26746</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>12901; 27099</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4675; 13522</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>8135; 13903</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>5664; 28930</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>4675; 13522</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>50304; 77523</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>20534; 35692</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>23872; 32779</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>34293; 79351</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>20534; 35692</t>
         </is>
       </c>
     </row>
@@ -2201,47 +2201,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>59</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>87</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
         </is>
       </c>
     </row>
@@ -2254,47 +2254,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>9507</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6013</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>4240</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>8550</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>6013</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>27478</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7509</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>8713</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>23372</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>7509</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>36985</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>13521</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>12954</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>31923</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>13521</t>
         </is>
       </c>
     </row>
@@ -2307,47 +2307,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>5199; 16221</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3648; 10906</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>2664; 6208</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>4612; 14704</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>3648; 10906</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>20324; 35960</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4406; 13116</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>6601; 11321</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>12610; 31503</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>4406; 13116</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>28240; 47314</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>9006; 20091</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>10402; 16203</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>21205; 42054</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>9006; 20091</t>
         </is>
       </c>
     </row>
@@ -2364,47 +2364,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>74</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>77</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -2417,47 +2417,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>1851</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>560</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>1818</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>42243</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>12749</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>37526</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>44094</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>640</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
+      <c r="K20" s="2" t="inlineStr">
         <is>
           <t>13309</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>39345</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>640</t>
         </is>
       </c>
     </row>
@@ -2470,47 +2470,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>0; 7881</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>109; 2163</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>0; 7762</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>32649; 53792</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3004</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>10438; 15936</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>29021; 47548</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>0; 3004</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>34791; 56550</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2830</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>10467; 16658</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>30875; 51035</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>0; 2830</t>
         </is>
       </c>
     </row>
@@ -2527,47 +2527,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>265</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>640</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>325</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>166</t>
         </is>
       </c>
     </row>
@@ -2580,47 +2580,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>116243</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>45377</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>61895</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>107692</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>45377</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>110301</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>26160</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>44143</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>97456</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>26160</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>226543</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>71537</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>106038</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>205148</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>71537</t>
         </is>
       </c>
     </row>
@@ -2633,47 +2633,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>98343; 135267</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>36317; 54903</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>55510; 68241</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>71029; 132174</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>36317; 54903</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>96574; 130856</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>18735; 34447</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>39284; 50384</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>69900; 118418</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>18735; 34447</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>200956; 252835</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>60600; 84864</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>98015; 114356</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>160501; 237823</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>60600; 84864</t>
         </is>
       </c>
     </row>
